--- a/MedicalLink/Templates/So_CDHA_SieuAmXQuangCanThiep.xlsx
+++ b/MedicalLink/Templates/So_CDHA_SieuAmXQuangCanThiep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -117,15 +117,40 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBAOCAO</t>
+  </si>
+  <si>
+    <t>Ngày chỉ định</t>
+  </si>
+  <si>
+    <t>Ngày trả kết quả</t>
+  </si>
+  <si>
+    <t>Ngày ra viện</t>
+  </si>
+  <si>
+    <t>Ngày duyệt viện phí</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MAUBENHPHAMDATE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MAUBENHPHAMFINISHDATE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].VIENPHIDATE_RAVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DUYET_NGAYDUYET_VP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +287,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,104 +613,129 @@
     <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="28" style="6" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="14" width="16.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="22" t="s">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="P7" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -707,14 +766,18 @@
       <c r="J9" s="8">
         <v>10</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
         <v>11</v>
       </c>
-      <c r="L9" s="8">
+      <c r="P9" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>4</v>
       </c>
@@ -745,21 +808,39 @@
       <c r="J10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="10" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:J2"/>
@@ -772,8 +853,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_CDHA_SieuAmXQuangCanThiep.xlsx
+++ b/MedicalLink/Templates/So_CDHA_SieuAmXQuangCanThiep.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Mã BN</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DUYET_NGAYDUYET_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,14 +300,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,27 +623,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="E2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -649,14 +652,14 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -670,47 +673,47 @@
         <v>0</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>8</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="K7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,10 +721,10 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -779,67 +782,61 @@
     </row>
     <row r="10" spans="1:16" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P13" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -853,6 +850,12 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
